--- a/stage2_excels/SP/SP_kfold_three.xlsx
+++ b/stage2_excels/SP/SP_kfold_three.xlsx
@@ -463,116 +463,116 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lab_l_percentile_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xyz_y_percentile_75</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yuv_u_std_dev</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8886704358020253</v>
+        <v>0.6582684720744967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xyz_x_percentile_75</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yuv_y_mean</t>
+          <t>lab_b_25</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8652623094497185</v>
+        <v>0.6229713499831557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_h_variance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>xyz_z_median</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>xyz_z_percentile_75</t>
+          <t>lab_a_25</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6582684720744967</v>
+        <v>0.6225460186185449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>xyz_y_mean</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6271178258780494</v>
+        <v>0.617954823062541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hsv_h_variance</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yuv_u_percentile_75</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6229713499831557</v>
+        <v>0.5869350939952624</v>
       </c>
     </row>
   </sheetData>
